--- a/空间.xlsx
+++ b/空间.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,13 +9,417 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="111">
+  <si>
+    <t>字段名称</t>
+  </si>
+  <si>
+    <t>字段描述</t>
+  </si>
+  <si>
+    <t>字段类型</t>
+  </si>
+  <si>
+    <t>长度</t>
+  </si>
+  <si>
+    <t>缺省值</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>空间信息主键id</t>
+  </si>
+  <si>
+    <t>bigint</t>
+  </si>
+  <si>
+    <t>租户id</t>
+  </si>
+  <si>
+    <t>parent_id</t>
+  </si>
+  <si>
+    <t>父级空间信息id</t>
+  </si>
+  <si>
+    <t>空间信息编码</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>空间信息流水号</t>
+  </si>
+  <si>
+    <t>空间信息名称</t>
+  </si>
+  <si>
+    <t>空间属性：0医院 1建筑 2楼层 3房间</t>
+  </si>
+  <si>
+    <t>房间属性：房间 走廊等</t>
+  </si>
+  <si>
+    <t>空间信息层级(根节点为0)</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>level_code</t>
+  </si>
+  <si>
+    <t>空间信息分区标识(0否 1是)</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>空间所属部门</t>
+  </si>
+  <si>
+    <t>空间联系方式</t>
+  </si>
+  <si>
+    <t>loc_func_prop</t>
+  </si>
+  <si>
+    <t>空间功能属性</t>
+  </si>
+  <si>
+    <t>loc_use</t>
+  </si>
+  <si>
+    <t>空间用途</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>排序</t>
+  </si>
+  <si>
+    <t>loc_seq</t>
+  </si>
+  <si>
+    <t>空间信息路径</t>
+  </si>
+  <si>
+    <t>name_seq</t>
+  </si>
+  <si>
+    <t>空间信息的名称路径</t>
+  </si>
+  <si>
+    <t>空间信息二维码张贴状态（0否 1是)</t>
+  </si>
+  <si>
+    <t>create_time</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>create_by</t>
+  </si>
+  <si>
+    <t>创建者</t>
+  </si>
+  <si>
+    <t>update_time</t>
+  </si>
+  <si>
+    <t>修改时间</t>
+  </si>
+  <si>
+    <t>update_by</t>
+  </si>
+  <si>
+    <t>修改者</t>
+  </si>
+  <si>
+    <t>park_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serialno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>full_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码全称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>full_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间全称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>construction_area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套内面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qrcode_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qrcode_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间二维码地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.冻结 1.开放 2.已出租 3.已售出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间信息状态（0无效 1有效）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_by</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入驻方名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用途类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sale_flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rent_flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否支持销售  0-否 ,1-是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否支持租赁  0-否 ,1-是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号格式类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户型(如: 2.两房一厅 3.三房一厅)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>estate_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地产类型(如: 1.商业 2.办公)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decor_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装修类型(如: 1.未装修 2.简单装修 3.精装修)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sale_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场销售价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sale_price_total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场销售总价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rent_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租赁类型（1.押一付一 2.押一付二 3.押一付三）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rent_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场租赁报价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manage_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物业管理费收费类型（1.按月 2.按面积）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manage_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物业管理费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间等级：0医院 1医院分区 2建筑 3建筑分区 4楼层 5楼层分区 6房间 7房间分区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,16 +427,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,23 +464,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +550,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +585,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +793,674 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13:H15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.25" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="2">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="2">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="2">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="2">
+        <v>100</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2">
+        <v>32</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2">
+        <v>32</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="2">
+        <v>100</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="38.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="38.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="38.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="38.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="2">
+        <v>20</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="2">
+        <v>20</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2">
+        <v>10</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="2">
+        <v>255</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="2">
+        <v>11</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="2">
+        <v>500</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" ht="38.25" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="2">
+        <v>50</v>
+      </c>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="2">
+        <v>50</v>
+      </c>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>